--- a/EmailBlast/Excel/Tycadome/Continent/Europe/UnitedKingdom.xlsx
+++ b/EmailBlast/Excel/Tycadome/Continent/Europe/UnitedKingdom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Robots\Ruby\EmailBlast\Excel\Countries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\Continent\Europe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7D3AC0-4463-40ED-A40E-095FF50D7F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3644C-B8BE-4B10-AFD2-0CBEF1122C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1860" windowWidth="10200" windowHeight="7875" firstSheet="7" activeTab="8" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="1" activeTab="9" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>Joyzine</t>
   </si>
   <si>
-    <t>paul@joyzine.org</t>
-  </si>
-  <si>
     <t>https://joyzine.org</t>
   </si>
   <si>
@@ -2414,6 +2411,9 @@
   </si>
   <si>
     <t>BBCRadio3</t>
+  </si>
+  <si>
+    <t>info@joyzine.org</t>
   </si>
 </sst>
 </file>
@@ -2910,7 +2910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B53813-76F7-4E64-937E-CDEC69F32CA0}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -3119,234 +3119,234 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="K9" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="K10" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="K12" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="K13" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="K14" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="K16" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="I18" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="K18" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3419,62 +3419,62 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3566,79 +3566,79 @@
         <v>98</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="H5" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -3763,25 +3763,25 @@
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4044,211 +4044,211 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="H8" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>157</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="I17" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="J17">
         <v>7005963770</v>
@@ -4256,45 +4256,45 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="I19" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4367,45 +4367,45 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4417,7 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A116" sqref="A2:XFD116"/>
     </sheetView>
   </sheetViews>
@@ -4460,13 +4460,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -4477,330 +4477,330 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>278</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>283</v>
-      </c>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>311</v>
       </c>
       <c r="J17">
         <v>447729073826</v>
@@ -4808,45 +4808,45 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="J19">
         <v>441517079044</v>
@@ -4854,33 +4854,33 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>323</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -4891,36 +4891,36 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -4931,111 +4931,111 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="15" t="s">
+      <c r="G28" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>358</v>
       </c>
       <c r="H28" s="12"/>
       <c r="J28">
@@ -5044,289 +5044,289 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>380</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="H35" s="15" t="s">
         <v>390</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>403</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="G39" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>418</v>
       </c>
       <c r="J41">
         <v>2082231224</v>
@@ -5334,217 +5334,217 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>425</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>429</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="C46" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="12" t="s">
+      <c r="G46" s="15" t="s">
         <v>438</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="15" t="s">
+      <c r="G47" s="15" t="s">
         <v>443</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="15" t="s">
+      <c r="G48" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="C49" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="12" t="s">
+      <c r="G50" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="C51" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>461</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>462</v>
       </c>
       <c r="J51">
         <v>447954723104</v>
@@ -5552,13 +5552,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -5569,177 +5569,177 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="C53" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="12" t="s">
+      <c r="G53" s="12" t="s">
         <v>470</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>474</v>
-      </c>
-      <c r="D54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="G55" s="8" t="s">
         <v>480</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="H58" s="15" t="s">
         <v>494</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>503</v>
       </c>
       <c r="J60">
         <v>1453759475</v>
@@ -5747,28 +5747,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="I61" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>509</v>
       </c>
       <c r="J61">
         <v>4402077385454</v>
@@ -5776,28 +5776,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="J62">
         <v>1612486888</v>
@@ -5805,51 +5805,51 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64">
@@ -5858,51 +5858,51 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="I66" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>537</v>
       </c>
       <c r="J66">
         <v>1642688104</v>
@@ -5910,28 +5910,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="I67" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="J67">
         <v>1603250056</v>
@@ -5939,49 +5939,49 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="C69" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="I69" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="J69">
         <v>8700100600</v>
@@ -5989,28 +5989,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="I70" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="J70">
         <v>1530460992</v>
@@ -6018,28 +6018,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="C71" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="I71" s="5" t="s">
         <v>564</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>565</v>
       </c>
       <c r="J71">
         <v>1858464666</v>
@@ -6047,49 +6047,49 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="2" t="s">
+      <c r="I73" s="9" t="s">
         <v>574</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>575</v>
       </c>
       <c r="J73">
         <v>1473230716</v>
@@ -6097,28 +6097,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="I74" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>581</v>
       </c>
       <c r="J74">
         <v>44185170333</v>
@@ -6126,115 +6126,115 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="C78" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="C79" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>604</v>
-      </c>
       <c r="I79" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J79">
         <v>8700100600</v>
@@ -6242,28 +6242,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="C80" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="J80">
         <v>441761411755</v>
@@ -6271,28 +6271,28 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="C81" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="I81" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>616</v>
       </c>
       <c r="J81">
         <v>1224294860</v>
@@ -6300,25 +6300,25 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C82" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="I82" s="9" t="s">
         <v>620</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>621</v>
       </c>
       <c r="J82">
         <v>1865288452</v>
@@ -6326,25 +6326,25 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="15" t="s">
+      <c r="I83" s="11" t="s">
         <v>625</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>626</v>
       </c>
       <c r="J83">
         <v>1422365923</v>
@@ -6352,10 +6352,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>627</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>628</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" t="s">
@@ -6365,10 +6365,10 @@
         <v>15</v>
       </c>
       <c r="F84" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="I84" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>630</v>
       </c>
       <c r="J84">
         <v>2392843848</v>
@@ -6376,28 +6376,28 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="C85" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D85" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="12" t="s">
+      <c r="G85" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="I85" s="11" t="s">
         <v>635</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>636</v>
       </c>
       <c r="J85">
         <v>1916455100</v>
@@ -6405,25 +6405,25 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="C86" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="12" t="s">
+      <c r="I86" s="14" t="s">
         <v>640</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>641</v>
       </c>
       <c r="J86">
         <v>2890971065</v>
@@ -6431,28 +6431,28 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="12" t="s">
+      <c r="G87" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="I87" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>647</v>
       </c>
       <c r="J87">
         <v>4401478611796</v>
@@ -6460,28 +6460,28 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="C88" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="12" t="s">
+      <c r="G88" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="G88" s="12" t="s">
+      <c r="I88" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>653</v>
       </c>
       <c r="J88">
         <v>2476573077</v>
@@ -6489,28 +6489,28 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="I89" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>657</v>
       </c>
       <c r="J89">
         <v>1932874433</v>
@@ -6518,28 +6518,28 @@
     </row>
     <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="C90" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="12" t="s">
+      <c r="H90" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="H90" s="15" t="s">
+      <c r="I90" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="J90">
         <v>4402076792509</v>
@@ -6547,25 +6547,25 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="12" t="s">
+      <c r="I91" s="11" t="s">
         <v>625</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>626</v>
       </c>
       <c r="J91">
         <v>1422365923</v>
@@ -6573,28 +6573,28 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="I92" s="14" t="s">
         <v>669</v>
-      </c>
-      <c r="D92" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>670</v>
       </c>
       <c r="J92">
         <v>1522837337</v>
@@ -6602,28 +6602,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="C93" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="H93" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="12" t="s">
+      <c r="I93" s="14" t="s">
         <v>676</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>677</v>
       </c>
       <c r="J93">
         <v>2079115000</v>
@@ -6631,28 +6631,28 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="12" t="s">
+      <c r="G94" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="I94" s="14" t="s">
         <v>679</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>680</v>
       </c>
       <c r="J94">
         <v>441761411755</v>
@@ -6660,28 +6660,28 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="12" t="s">
+      <c r="G95" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="I95" s="14" t="s">
         <v>685</v>
-      </c>
-      <c r="I95" s="14" t="s">
-        <v>686</v>
       </c>
       <c r="J95">
         <v>1334462700</v>
@@ -6689,25 +6689,25 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="C96" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>690</v>
-      </c>
       <c r="I96" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J96">
         <v>8700100600</v>
@@ -6715,28 +6715,28 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="15" t="s">
+      <c r="H97" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="H97" s="12" t="s">
+      <c r="I97" s="11" t="s">
         <v>695</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>696</v>
       </c>
       <c r="J97">
         <v>1413307033</v>
@@ -6744,25 +6744,25 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="C98" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="15" t="s">
+      <c r="I98" s="14" t="s">
         <v>700</v>
-      </c>
-      <c r="I98" s="14" t="s">
-        <v>701</v>
       </c>
       <c r="J98">
         <v>1273678999</v>
@@ -6770,28 +6770,28 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="C99" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="D99" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="12" t="s">
+      <c r="G99" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="G99" s="12" t="s">
+      <c r="I99" s="11" t="s">
         <v>706</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>707</v>
       </c>
       <c r="J99">
         <v>441904321350</v>
@@ -6799,25 +6799,25 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="C100" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="15" t="s">
+      <c r="I100" s="14" t="s">
         <v>711</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>712</v>
       </c>
       <c r="J100">
         <v>1225383800</v>
@@ -6825,28 +6825,28 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="C101" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H101" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" s="12" t="s">
+      <c r="I101" s="14" t="s">
         <v>717</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="I101" s="14" t="s">
-        <v>718</v>
       </c>
       <c r="J101">
         <v>1158468722</v>
@@ -6854,28 +6854,28 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="C102" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="12" t="s">
+      <c r="G102" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="I102" s="14" t="s">
         <v>723</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>724</v>
       </c>
       <c r="J102">
         <v>1292611809</v>
@@ -6883,28 +6883,28 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="C103" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="12" t="s">
+      <c r="G103" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="G103" s="12" t="s">
+      <c r="I103" s="11" t="s">
         <v>729</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>730</v>
       </c>
       <c r="J103">
         <v>1392263568</v>
@@ -6912,22 +6912,22 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="C104" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="14" t="s">
         <v>733</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>734</v>
       </c>
       <c r="J104">
         <v>1792513008</v>
@@ -6935,28 +6935,28 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="C105" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>739</v>
-      </c>
       <c r="I105" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J105">
         <v>441760722283</v>
@@ -6964,13 +6964,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="C106" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
@@ -6981,28 +6981,28 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D107" t="s">
-        <v>14</v>
-      </c>
-      <c r="E107" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="I107" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="J107">
         <v>1612956303</v>
@@ -7010,25 +7010,25 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108">
@@ -7037,25 +7037,25 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="C109" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="J109">
         <v>447973108519</v>
@@ -7063,54 +7063,54 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D110" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="I110" s="9" t="s">
         <v>764</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="C111" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="I111" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>769</v>
       </c>
       <c r="J111">
         <v>1179259522</v>
@@ -7118,28 +7118,28 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="C112" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="I112" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>769</v>
       </c>
       <c r="J112">
         <v>1179259522</v>
@@ -7147,28 +7147,28 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="G113" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="I113" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>769</v>
       </c>
       <c r="J113">
         <v>1179259522</v>
@@ -7176,51 +7176,51 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="H114" s="12" t="s">
         <v>779</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>781</v>
-      </c>
-      <c r="H114" s="12" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="C115" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="I115" s="9" t="s">
         <v>783</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>784</v>
       </c>
       <c r="J115">
         <v>1268833978</v>
@@ -7228,25 +7228,25 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>

--- a/EmailBlast/Excel/Tycadome/Continent/Europe/UnitedKingdom.xlsx
+++ b/EmailBlast/Excel/Tycadome/Continent/Europe/UnitedKingdom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Tech\Software Programming and Coding\Robots\Ruby\EmailBlast\Excel\Tycadome\Continent\Europe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E3644C-B8BE-4B10-AFD2-0CBEF1122C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC88C8-EBB4-42D3-9604-10895996BB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="1" activeTab="9" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="1" activeTab="8" xr2:uid="{A137CB90-262B-4B90-B2EF-3C03DE4DEFB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrumental" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="786">
   <si>
     <t>Name</t>
   </si>
@@ -1243,18 +1243,6 @@
   </si>
   <si>
     <t>NorthExpWebzine</t>
-  </si>
-  <si>
-    <t>Platinum Mind</t>
-  </si>
-  <si>
-    <t>derek@platinummind.net</t>
-  </si>
-  <si>
-    <t>https://platinummind.net</t>
-  </si>
-  <si>
-    <t>platinummind</t>
   </si>
   <si>
     <t>Popped Music</t>
@@ -2910,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B53813-76F7-4E64-937E-CDEC69F32CA0}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -3566,7 +3554,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>99</v>
@@ -4415,9 +4403,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F15D6B-1986-4C98-8246-F389BFC561C5}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A116" sqref="A2:XFD116"/>
     </sheetView>
   </sheetViews>
@@ -5256,19 +5244,22 @@
       <c r="E38" t="s">
         <v>15</v>
       </c>
+      <c r="F38" s="12" t="s">
+        <v>403</v>
+      </c>
       <c r="G38" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -5276,8 +5267,8 @@
       <c r="E39" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>407</v>
+      <c r="F39" s="15" t="s">
+        <v>409</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>408</v>
@@ -5285,35 +5276,38 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B40" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="14" t="s">
         <v>411</v>
       </c>
+      <c r="C40" s="14" t="s">
+        <v>412</v>
+      </c>
       <c r="D40" t="s">
         <v>14</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="I40" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>412</v>
+      <c r="J40">
+        <v>2082231224</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D41" t="s">
@@ -5322,14 +5316,8 @@
       <c r="E41" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="I41" s="14" t="s">
+      <c r="G41" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="J41">
-        <v>2082231224</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5348,7 +5336,7 @@
       <c r="E42" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="H42" s="15" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5368,16 +5356,16 @@
       <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="F43" s="15" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>428</v>
@@ -5388,16 +5376,16 @@
       <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="G44" s="12" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>432</v>
@@ -5408,19 +5396,22 @@
       <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>433</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B46" s="14" t="s">
         <v>435</v>
       </c>
+      <c r="B46" s="11" t="s">
+        <v>436</v>
+      </c>
       <c r="C46" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
@@ -5428,22 +5419,22 @@
       <c r="E46" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>437</v>
+      <c r="F46" s="15" t="s">
+        <v>438</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -5452,30 +5443,27 @@
         <v>15</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="G47" s="15" t="s">
         <v>443</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B48" s="11" t="s">
         <v>445</v>
       </c>
+      <c r="B48" s="14" t="s">
+        <v>446</v>
+      </c>
       <c r="C48" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>447</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>448</v>
@@ -5485,7 +5473,7 @@
       <c r="A49" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>450</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -5497,19 +5485,22 @@
       <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>452</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B50" s="11" t="s">
         <v>454</v>
       </c>
+      <c r="B50" s="14" t="s">
+        <v>455</v>
+      </c>
       <c r="C50" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
@@ -5517,22 +5508,25 @@
       <c r="E50" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>456</v>
+      <c r="F50" s="15" t="s">
+        <v>458</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>457</v>
       </c>
+      <c r="J50">
+        <v>447954723104</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B51" s="14" t="s">
         <v>459</v>
       </c>
+      <c r="B51" s="11" t="s">
+        <v>460</v>
+      </c>
       <c r="C51" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -5540,42 +5534,39 @@
       <c r="E51" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="15" t="s">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="J51">
-        <v>447954723104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="B52" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>15</v>
+      <c r="G52" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="10" t="s">
         <v>467</v>
       </c>
+      <c r="B53" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="C53" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D53" t="s">
         <v>14</v>
@@ -5583,54 +5574,51 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>469</v>
+      <c r="F53" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="5" t="s">
         <v>473</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="D54" t="s">
         <v>14</v>
       </c>
       <c r="E54" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>474</v>
+      <c r="G54" s="8" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B55" s="5" t="s">
         <v>477</v>
       </c>
+      <c r="B55" s="9" t="s">
+        <v>478</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
       </c>
       <c r="E55" t="s">
         <v>15</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>479</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>480</v>
@@ -5640,7 +5628,7 @@
       <c r="A56" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="5" t="s">
         <v>482</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -5652,53 +5640,53 @@
       <c r="E56" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B57" s="11" t="s">
         <v>487</v>
       </c>
+      <c r="C57" s="11" t="s">
+        <v>488</v>
+      </c>
       <c r="D57" t="s">
         <v>14</v>
       </c>
       <c r="E57" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>488</v>
+      <c r="H57" s="15" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="5" t="s">
         <v>492</v>
       </c>
+      <c r="C58" s="5" t="s">
+        <v>493</v>
+      </c>
       <c r="D58" t="s">
         <v>14</v>
       </c>
       <c r="E58" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="H58" s="15" t="s">
+      <c r="G58" s="2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -5706,7 +5694,7 @@
       <c r="A59" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="9" t="s">
         <v>496</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -5718,15 +5706,18 @@
       <c r="E59" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="I59" s="9" t="s">
         <v>498</v>
+      </c>
+      <c r="J59">
+        <v>1453759475</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="5" t="s">
         <v>500</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -5738,22 +5729,28 @@
       <c r="E60" t="s">
         <v>15</v>
       </c>
+      <c r="F60" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>503</v>
+      </c>
       <c r="I60" s="9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J60">
-        <v>1453759475</v>
+        <v>4402077385454</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -5762,27 +5759,27 @@
         <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="I61" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>508</v>
       </c>
       <c r="J61">
-        <v>4402077385454</v>
+        <v>1612486888</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -5791,27 +5788,24 @@
         <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="J62">
-        <v>1612486888</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -5823,21 +5817,22 @@
         <v>520</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>518</v>
+        <v>521</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63">
+        <v>4407895669929</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>521</v>
+      <c r="A64" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -5846,25 +5841,21 @@
         <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="I64" s="9"/>
-      <c r="J64">
-        <v>4407895669929</v>
+        <v>526</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>526</v>
+      <c r="A65" s="6" t="s">
+        <v>527</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -5873,21 +5864,27 @@
         <v>15</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G65" s="2" t="s">
         <v>530</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65">
+        <v>1642688104</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D66" t="s">
         <v>14</v>
@@ -5896,27 +5893,27 @@
         <v>15</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="I66" s="9" t="s">
         <v>536</v>
       </c>
+      <c r="G66" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="J66">
-        <v>1642688104</v>
+        <v>1603250056</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -5925,27 +5922,22 @@
         <v>15</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J67">
-        <v>1603250056</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>544</v>
       </c>
+      <c r="B68" s="9" t="s">
+        <v>545</v>
+      </c>
       <c r="C68" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -5954,22 +5946,24 @@
         <v>15</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G68" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="I68" s="9"/>
+      <c r="I68" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="J68">
+        <v>8700100600</v>
+      </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="6" t="s">
         <v>549</v>
       </c>
+      <c r="B69" s="5" t="s">
+        <v>550</v>
+      </c>
       <c r="C69" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -5978,24 +5972,27 @@
         <v>15</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="I69" s="5" t="s">
         <v>552</v>
       </c>
+      <c r="G69" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>554</v>
+      </c>
       <c r="J69">
-        <v>8700100600</v>
+        <v>1530460992</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -6004,27 +6001,27 @@
         <v>15</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="J70">
-        <v>1530460992</v>
+        <v>1858464666</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>560</v>
+      <c r="A71" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>562</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -6033,51 +6030,48 @@
         <v>15</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="J71">
-        <v>1858464666</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D72" t="s">
         <v>14</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="J72">
+        <v>1473230716</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>571</v>
       </c>
+      <c r="B73" s="9" t="s">
+        <v>572</v>
+      </c>
       <c r="C73" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -6085,25 +6079,28 @@
       <c r="E73" t="s">
         <v>15</v>
       </c>
+      <c r="F73" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="G73" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J73">
-        <v>1473230716</v>
+        <v>44185170333</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>576</v>
+      <c r="A74" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -6112,27 +6109,21 @@
         <v>15</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="J74">
-        <v>44185170333</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -6141,11 +6132,9 @@
         <v>15</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="G75" s="2" t="s">
         <v>585</v>
       </c>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
@@ -6166,17 +6155,19 @@
       <c r="F76" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B77" s="5" t="s">
         <v>591</v>
       </c>
+      <c r="B77" s="9" t="s">
+        <v>592</v>
+      </c>
       <c r="C77" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D77" t="s">
         <v>14</v>
@@ -6185,21 +6176,21 @@
         <v>15</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G77" s="2" t="s">
         <v>594</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -6207,11 +6198,14 @@
       <c r="E78" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="2" t="s">
         <v>599</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="J78">
+        <v>8700100600</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -6230,25 +6224,28 @@
       <c r="E79" t="s">
         <v>15</v>
       </c>
+      <c r="F79" s="8" t="s">
+        <v>604</v>
+      </c>
       <c r="G79" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="I79" s="5" t="s">
-        <v>552</v>
-      </c>
       <c r="J79">
-        <v>8700100600</v>
+        <v>441761411755</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>604</v>
+      <c r="A80" s="6" t="s">
+        <v>606</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -6257,161 +6254,158 @@
         <v>15</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="G80" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="I80" s="5" t="s">
-        <v>607</v>
+      <c r="G80" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>611</v>
       </c>
       <c r="J80">
-        <v>441761411755</v>
+        <v>1224294860</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>612</v>
       </c>
+      <c r="B81" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>614</v>
+      </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>614</v>
+      <c r="G81" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="J81">
-        <v>1224294860</v>
+        <v>1865288452</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="11" t="s">
         <v>618</v>
       </c>
+      <c r="C82" s="11" t="s">
+        <v>619</v>
+      </c>
       <c r="D82" t="s">
         <v>14</v>
       </c>
       <c r="E82" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="I82" s="9" t="s">
+      <c r="F82" s="15" t="s">
         <v>620</v>
       </c>
+      <c r="I82" s="11" t="s">
+        <v>621</v>
+      </c>
       <c r="J82">
-        <v>1865288452</v>
+        <v>1422365923</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>621</v>
+      <c r="A83" s="13" t="s">
+        <v>622</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="C83" s="11" t="s">
         <v>623</v>
       </c>
+      <c r="C83" s="7"/>
       <c r="D83" t="s">
         <v>14</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="11" t="s">
         <v>624</v>
       </c>
       <c r="I83" s="11" t="s">
         <v>625</v>
       </c>
       <c r="J83">
-        <v>1422365923</v>
+        <v>2392843848</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="C84" s="7"/>
+      <c r="C84" s="11" t="s">
+        <v>628</v>
+      </c>
       <c r="D84" t="s">
         <v>14</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>628</v>
+      <c r="F84" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>630</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J84">
-        <v>2392843848</v>
+        <v>1916455100</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="C85" s="11" t="s">
         <v>632</v>
       </c>
+      <c r="B85" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="D85" t="s">
         <v>14</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="12" t="s">
-        <v>633</v>
-      </c>
       <c r="G85" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="I85" s="11" t="s">
         <v>635</v>
       </c>
+      <c r="I85" s="14" t="s">
+        <v>636</v>
+      </c>
       <c r="J85">
-        <v>1916455100</v>
+        <v>2890971065</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>637</v>
       </c>
+      <c r="B86" s="14" t="s">
+        <v>638</v>
+      </c>
       <c r="C86" s="14" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
@@ -6419,25 +6413,28 @@
       <c r="E86" t="s">
         <v>15</v>
       </c>
+      <c r="F86" s="12" t="s">
+        <v>640</v>
+      </c>
       <c r="G86" s="12" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="J86">
-        <v>2890971065</v>
+        <v>4401478611796</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>641</v>
+      <c r="A87" s="13" t="s">
+        <v>643</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>643</v>
+        <v>644</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>645</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -6446,27 +6443,27 @@
         <v>15</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J87">
-        <v>4401478611796</v>
+        <v>2476573077</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>648</v>
+      <c r="A88" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>650</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
@@ -6475,27 +6472,27 @@
         <v>15</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="I88" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="I88" s="11" t="s">
         <v>652</v>
       </c>
       <c r="J88">
-        <v>2476573077</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>653</v>
+        <v>1932874433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>655</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>655</v>
+        <v>656</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>657</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -6504,28 +6501,28 @@
         <v>15</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="G89" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="I89" s="11" t="s">
-        <v>656</v>
+      <c r="H89" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="J89">
-        <v>1932874433</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4402076792509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>659</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="C90" s="14" t="s">
         <v>661</v>
       </c>
+      <c r="B90" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>619</v>
+      </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
@@ -6533,53 +6530,53 @@
         <v>15</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>664</v>
+        <v>620</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>621</v>
       </c>
       <c r="J90">
-        <v>4402076792509</v>
+        <v>1422365923</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="I91" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B91" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>625</v>
-      </c>
       <c r="J91">
-        <v>1422365923</v>
+        <v>1522837337</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>666</v>
-      </c>
-      <c r="B92" s="11" t="s">
         <v>667</v>
       </c>
+      <c r="B92" s="14" t="s">
+        <v>668</v>
+      </c>
       <c r="C92" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -6587,28 +6584,28 @@
       <c r="E92" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="G92" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="H92" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="G92" s="12" t="s">
-        <v>666</v>
-      </c>
       <c r="I92" s="14" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="J92">
-        <v>1522837337</v>
+        <v>2079115000</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>673</v>
+        <v>601</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -6616,28 +6613,28 @@
       <c r="E93" t="s">
         <v>15</v>
       </c>
+      <c r="F93" s="12" t="s">
+        <v>674</v>
+      </c>
       <c r="G93" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="I93" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="H93" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="I93" s="14" t="s">
+      <c r="J93">
+        <v>441761411755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="J93">
-        <v>2079115000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+      <c r="B94" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>605</v>
-      </c>
       <c r="C94" s="11" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
@@ -6646,27 +6643,27 @@
         <v>15</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="J94">
-        <v>441761411755</v>
+        <v>1334462700</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>681</v>
+      <c r="A95" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>683</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
@@ -6674,24 +6671,21 @@
       <c r="E95" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="12" t="s">
-        <v>683</v>
-      </c>
       <c r="G95" s="12" t="s">
-        <v>684</v>
-      </c>
-      <c r="I95" s="14" t="s">
         <v>685</v>
       </c>
+      <c r="I95" s="11" t="s">
+        <v>548</v>
+      </c>
       <c r="J95">
-        <v>1334462700</v>
+        <v>8700100600</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="11" t="s">
         <v>687</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -6703,25 +6697,28 @@
       <c r="E96" t="s">
         <v>15</v>
       </c>
-      <c r="G96" s="12" t="s">
+      <c r="G96" s="15" t="s">
         <v>689</v>
       </c>
+      <c r="H96" s="12" t="s">
+        <v>690</v>
+      </c>
       <c r="I96" s="11" t="s">
-        <v>552</v>
+        <v>691</v>
       </c>
       <c r="J96">
-        <v>8700100600</v>
+        <v>1413307033</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -6729,28 +6726,25 @@
       <c r="E97" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="I97" s="11" t="s">
+      <c r="F97" s="15" t="s">
         <v>695</v>
       </c>
+      <c r="I97" s="14" t="s">
+        <v>696</v>
+      </c>
       <c r="J97">
-        <v>1413307033</v>
+        <v>1273678999</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -6758,25 +6752,28 @@
       <c r="E98" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="I98" s="14" t="s">
+      <c r="F98" s="12" t="s">
         <v>700</v>
       </c>
+      <c r="G98" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>702</v>
+      </c>
       <c r="J98">
-        <v>1273678999</v>
+        <v>441904321350</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
@@ -6784,28 +6781,25 @@
       <c r="E99" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="I99" s="11" t="s">
+      <c r="F99" s="15" t="s">
         <v>706</v>
       </c>
+      <c r="I99" s="14" t="s">
+        <v>707</v>
+      </c>
       <c r="J99">
-        <v>441904321350</v>
+        <v>1225383800</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D100" t="s">
         <v>14</v>
@@ -6813,25 +6807,28 @@
       <c r="E100" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="15" t="s">
-        <v>710</v>
+      <c r="G100" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>711</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J100">
-        <v>1225383800</v>
+        <v>1158468722</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>713</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>714</v>
+        <v>715</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>716</v>
       </c>
       <c r="D101" t="s">
         <v>14</v>
@@ -6839,28 +6836,28 @@
       <c r="E101" t="s">
         <v>15</v>
       </c>
+      <c r="F101" s="12" t="s">
+        <v>717</v>
+      </c>
       <c r="G101" s="12" t="s">
-        <v>716</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="J101">
-        <v>1158468722</v>
+        <v>1292611809</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>722</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -6869,27 +6866,27 @@
         <v>15</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>725</v>
       </c>
       <c r="J102">
-        <v>1292611809</v>
+        <v>1392263568</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>726</v>
+        <v>727</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
@@ -6897,27 +6894,21 @@
       <c r="E103" t="s">
         <v>15</v>
       </c>
-      <c r="F103" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="I103" s="11" t="s">
+      <c r="I103" s="14" t="s">
         <v>729</v>
       </c>
       <c r="J103">
-        <v>1392263568</v>
+        <v>1792513008</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="5" t="s">
         <v>732</v>
       </c>
       <c r="D104" t="s">
@@ -6926,22 +6917,28 @@
       <c r="E104" t="s">
         <v>15</v>
       </c>
-      <c r="I104" s="14" t="s">
+      <c r="F104" s="2" t="s">
         <v>733</v>
       </c>
+      <c r="G104" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>738</v>
+      </c>
       <c r="J104">
-        <v>1792513008</v>
+        <v>441760722283</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="B105" s="7" t="s">
         <v>735</v>
       </c>
+      <c r="B105" s="9" t="s">
+        <v>736</v>
+      </c>
       <c r="C105" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D105" t="s">
         <v>14</v>
@@ -6949,24 +6946,12 @@
       <c r="E105" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="J105">
-        <v>441760722283</v>
-      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="5" t="s">
         <v>740</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -6978,16 +6963,28 @@
       <c r="E106" t="s">
         <v>15</v>
       </c>
+      <c r="F106" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="J106">
+        <v>1612956303</v>
+      </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>743</v>
+      <c r="A107" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
@@ -6996,27 +6993,25 @@
         <v>15</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="I107" s="5" t="s">
-        <v>748</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="I107" s="9"/>
       <c r="J107">
-        <v>1612956303</v>
+        <v>442032860210</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="B108" s="5" t="s">
         <v>750</v>
       </c>
+      <c r="B108" s="9" t="s">
+        <v>751</v>
+      </c>
       <c r="C108" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
@@ -7025,25 +7020,24 @@
         <v>15</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="I108" s="9"/>
+        <v>754</v>
+      </c>
       <c r="J108">
-        <v>442032860210</v>
+        <v>447973108519</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="B109" s="9" t="s">
         <v>755</v>
       </c>
+      <c r="B109" s="5" t="s">
+        <v>756</v>
+      </c>
       <c r="C109" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -7052,24 +7046,24 @@
         <v>15</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="G109" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="J109">
-        <v>447973108519</v>
+      <c r="G109" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>760</v>
+      <c r="A110" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>762</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -7078,135 +7072,138 @@
         <v>15</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="I110" s="9" t="s">
         <v>764</v>
       </c>
+      <c r="J110">
+        <v>1179259522</v>
+      </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="D111" t="s">
-        <v>14</v>
-      </c>
-      <c r="E111" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>770</v>
-      </c>
       <c r="I111" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="J111">
         <v>1179259522</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>773</v>
-      </c>
       <c r="I112" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="J112">
         <v>1179259522</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>767</v>
-      </c>
       <c r="D113" t="s">
         <v>14</v>
       </c>
       <c r="E113" t="s">
         <v>15</v>
       </c>
-      <c r="F113" s="12" t="s">
+      <c r="G113" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="H113" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="G113" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="J113">
-        <v>1179259522</v>
-      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>776</v>
-      </c>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="4" t="s">
         <v>777</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="B114" s="9" t="s">
         <v>778</v>
       </c>
+      <c r="C114" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="D114" t="s">
         <v>14</v>
       </c>
       <c r="E114" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="H114" s="12" t="s">
+      <c r="F114" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="I114" s="9" t="s">
         <v>779</v>
+      </c>
+      <c r="J114">
+        <v>1268833978</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="C115" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>545</v>
-      </c>
       <c r="D115" t="s">
         <v>14</v>
       </c>
@@ -7214,39 +7211,10 @@
         <v>15</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>546</v>
+        <v>783</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="J115">
-        <v>1268833978</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -7254,8 +7222,8 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{FE2EAE55-08BF-4130-8438-760264DF04D7}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{68F6AFD7-ABFF-4EB3-BAA0-F8FB74DED380}"/>
     <hyperlink ref="C22" r:id="rId3" xr:uid="{4318AC4B-FA47-4D66-A40C-35A1DFC114A7}"/>
-    <hyperlink ref="C104" r:id="rId4" xr:uid="{76E2CA92-81C7-4851-A3B5-59131654CEC9}"/>
-    <hyperlink ref="B105" r:id="rId5" xr:uid="{7175F154-93A7-4CA7-ABBE-09E404B96503}"/>
+    <hyperlink ref="C103" r:id="rId4" xr:uid="{76E2CA92-81C7-4851-A3B5-59131654CEC9}"/>
+    <hyperlink ref="B104" r:id="rId5" xr:uid="{7175F154-93A7-4CA7-ABBE-09E404B96503}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
